--- a/V SEMESTRE - CONTADURÍA PÚBLICA/TEORÍA DE CONTROL Y AUDITORÍA/Analisis EF JV.xlsx
+++ b/V SEMESTRE - CONTADURÍA PÚBLICA/TEORÍA DE CONTROL Y AUDITORÍA/Analisis EF JV.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer}\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6149EE-DFED-4E63-9ADE-07E0E0BFE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
-  <si>
-    <t>NDTA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>ACTIVOS</t>
   </si>
@@ -376,17 +374,29 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Análisis Vertical 2022</t>
+  </si>
+  <si>
+    <t>Análisis Vertical 2023</t>
+  </si>
+  <si>
+    <t>Análisis Horizontal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -598,6 +608,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -629,12 +647,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -644,190 +668,188 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -845,6 +867,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2060510</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>842849</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276DC1D7-6FE3-5BE4-FC9B-FB557FA1E291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3751683" y="77755"/>
+          <a:ext cx="6849431" cy="952633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,26 +1115,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B6:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="68" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="57.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1076,1218 +1151,1221 @@
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="60"/>
+      <c r="G7" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8">
+      <c r="D8" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="62">
         <v>2022</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G8" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="61">
         <v>2023</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
+      <c r="I8" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="51">
+        <v>5</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="45">
-        <f>F10/$F$16</f>
+      <c r="G10" s="24">
+        <f t="shared" ref="G10:G15" si="0">F10/$F$16</f>
         <v>6.3052790962764754E-2</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="22">
         <v>14846130</v>
       </c>
-      <c r="I10" s="45">
-        <f>H10/$H$16</f>
+      <c r="I10" s="24">
+        <f t="shared" ref="I10:I15" si="1">H10/$H$16</f>
         <v>8.7535238580138744E-2</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="30">
         <f>F10-H10</f>
         <v>-4026042</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="40">
+        <v>6</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.31111619297710325</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="17">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="I11" s="24">
+        <f t="shared" si="1"/>
+        <v>0.36148559524920953</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" ref="J11:J51" si="2">F11-H11</f>
+        <v>-7919922</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="45">
-        <f>F11/$F$16</f>
-        <v>0.31111619297710325</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="45">
-        <f>H11/$H$16</f>
-        <v>0.36148559524920953</v>
-      </c>
-      <c r="J11" s="52">
-        <f t="shared" ref="J11:J51" si="0">F11-H11</f>
-        <v>-7919922</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="44">
+        <v>7</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" si="0"/>
+        <v>9.992084491591155E-3</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19">
-        <v>7</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
+      <c r="I12" s="24">
+        <f t="shared" si="1"/>
+        <v>1.3023349982571524E-2</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="2"/>
+        <v>-494105</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="45">
-        <f>F12/$F$16</f>
-        <v>9.992084491591155E-3</v>
-      </c>
-      <c r="H12" s="44" t="s">
+      <c r="D13" s="45">
+        <v>8</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.5271262759337968</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="1"/>
+        <v>0.42454507870242897</v>
+      </c>
+      <c r="J13" s="35">
+        <f t="shared" si="2"/>
+        <v>18453194</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="52">
         <v>9</v>
       </c>
-      <c r="I12" s="45">
-        <f>H12/$H$16</f>
-        <v>1.3023349982571524E-2</v>
-      </c>
-      <c r="J12" s="52">
+      <c r="E14" s="41"/>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
-        <v>-494105</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="54">
-        <v>8</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="57">
-        <f>F13/$F$16</f>
-        <v>0.5271262759337968</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="57">
-        <f>H13/$H$16</f>
-        <v>0.42454507870242897</v>
-      </c>
-      <c r="J13" s="59">
+        <v>7.9348966930088249E-2</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="1"/>
+        <v>0.1039033711880126</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="2"/>
+        <v>-4005623</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="40">
+        <v>10</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="24">
         <f t="shared" si="0"/>
-        <v>18453194</v>
-      </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="21">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="45">
-        <f>F14/$F$16</f>
-        <v>7.9348966930088249E-2</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="45">
-        <f>H14/$H$16</f>
-        <v>0.1039033711880126</v>
-      </c>
-      <c r="J14" s="52">
-        <f t="shared" si="0"/>
-        <v>-4005623</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="22" t="s">
+        <v>9.3636887046558044E-3</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
+      <c r="I15" s="24">
+        <f t="shared" si="1"/>
+        <v>9.5073662976386444E-3</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" si="2"/>
+        <v>-5623</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="45">
-        <f>F15/$F$16</f>
-        <v>9.3636887046558044E-3</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="45">
-        <f>H15/$H$16</f>
-        <v>9.5073662976386444E-3</v>
-      </c>
-      <c r="J15" s="52">
-        <f t="shared" si="0"/>
-        <v>-5623</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="46">
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="25">
         <f>SUM(G10:G15)</f>
         <v>1</v>
       </c>
-      <c r="H16" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="46">
+      <c r="H16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="25">
         <f>SUM(I10:I15)</f>
         <v>1</v>
       </c>
-      <c r="J16" s="52">
-        <f t="shared" si="0"/>
+      <c r="J16" s="30">
+        <f t="shared" si="2"/>
         <v>2001879</v>
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="30"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="52"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="60" t="s">
+      <c r="D18" s="45">
+        <v>11</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" ref="G18:G24" si="3">F18/$F$25</f>
+        <v>0.43704046424302867</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="54">
-        <v>11</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56" t="s">
+      <c r="I18" s="33">
+        <f t="shared" ref="I18:I24" si="4">H18/$H$25</f>
+        <v>0.3874868828250051</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="2"/>
+        <v>-281547</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="57">
-        <f>F18/$F$25</f>
-        <v>0.43704046424302867</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="57">
-        <f>H18/$H$25</f>
-        <v>0.3874868828250051</v>
-      </c>
-      <c r="J18" s="59">
-        <f t="shared" si="0"/>
-        <v>-281547</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="61" t="s">
+      <c r="D19" s="45">
+        <v>12</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="3"/>
+        <v>0.34983845513603046</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="54">
-        <v>12</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56" t="s">
+      <c r="I19" s="33">
+        <f t="shared" si="4"/>
+        <v>0.46094708436849913</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="2"/>
+        <v>-24932284</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="57">
-        <f>F19/$F$25</f>
-        <v>0.34983845513603046</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="57">
-        <f>H19/$H$25</f>
-        <v>0.46094708436849913</v>
-      </c>
-      <c r="J19" s="59">
-        <f t="shared" si="0"/>
-        <v>-24932284</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="53">
+        <v>13</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="3"/>
+        <v>2.6658546029023956E-3</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="27">
-        <v>13</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12" t="s">
+      <c r="I20" s="24">
+        <f t="shared" si="4"/>
+        <v>5.749127122057403E-3</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" si="2"/>
+        <v>-556493</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="45">
-        <f>F20/$F$25</f>
-        <v>2.6658546029023956E-3</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="45">
-        <f>H20/$H$25</f>
-        <v>5.749127122057403E-3</v>
-      </c>
-      <c r="J20" s="52">
-        <f t="shared" si="0"/>
-        <v>-556493</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="54">
+        <v>14</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="3"/>
+        <v>9.9380179385027481E-2</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28">
-        <v>14</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12" t="s">
+      <c r="I21" s="24">
+        <f t="shared" si="4"/>
+        <v>6.6829544606639507E-2</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="2"/>
+        <v>3423457</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="45">
-        <f>F21/$F$25</f>
-        <v>9.9380179385027481E-2</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="45">
-        <f>H21/$H$25</f>
-        <v>6.6829544606639507E-2</v>
-      </c>
-      <c r="J21" s="52">
-        <f t="shared" si="0"/>
-        <v>3423457</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="55">
+        <v>15</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="3"/>
+        <v>1.4738751295853052E-2</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="29">
-        <v>15</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12" t="s">
+      <c r="I22" s="24">
+        <f t="shared" si="4"/>
+        <v>7.2306950154664837E-3</v>
+      </c>
+      <c r="J22" s="30">
+        <f t="shared" si="2"/>
+        <v>946978</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="45">
-        <f>F22/$F$25</f>
-        <v>1.4738751295853052E-2</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="45">
-        <f>H22/$H$25</f>
-        <v>7.2306950154664837E-3</v>
-      </c>
-      <c r="J22" s="52">
-        <f t="shared" si="0"/>
-        <v>946978</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="56">
+        <v>16</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" si="3"/>
+        <v>6.6837823757237277E-2</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="31">
-        <v>16</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
+      <c r="I23" s="24">
+        <f t="shared" si="4"/>
+        <v>4.6674572747788294E-2</v>
+      </c>
+      <c r="J23" s="30">
+        <f t="shared" si="2"/>
+        <v>2019180</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="45">
-        <f>F23/$F$25</f>
-        <v>6.6837823757237277E-2</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="45">
-        <f>H23/$H$25</f>
-        <v>4.6674572747788294E-2</v>
-      </c>
-      <c r="J23" s="52">
-        <f t="shared" si="0"/>
-        <v>2019180</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="40">
+        <v>9</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" si="3"/>
+        <v>2.949847157992069E-2</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="17">
-        <v>9</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12" t="s">
+      <c r="I24" s="24">
+        <f t="shared" si="4"/>
+        <v>2.5082093314544109E-2</v>
+      </c>
+      <c r="J24" s="30">
+        <f t="shared" si="2"/>
+        <v>156614</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="45">
-        <f>F24/$F$25</f>
-        <v>2.949847157992069E-2</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="45">
-        <f>H24/$H$25</f>
-        <v>2.5082093314544109E-2</v>
-      </c>
-      <c r="J24" s="52">
-        <f t="shared" si="0"/>
-        <v>156614</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="46">
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="25">
         <f>SUM(G18:G24)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="H25" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="46">
+      <c r="H25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="25">
         <f>SUM(I18:I24)</f>
         <v>1</v>
       </c>
-      <c r="J25" s="52">
-        <f t="shared" si="0"/>
+      <c r="J25" s="30">
+        <f t="shared" si="2"/>
         <v>-19224095</v>
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="48" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="30">
+        <f t="shared" si="2"/>
+        <v>-17222216</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="52">
-        <f t="shared" si="0"/>
-        <v>-17222216</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="30"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="52"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="30"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="52"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="57">
+        <v>17</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" ref="G29:G36" si="5">F29/$F$37</f>
+        <v>0.28289135104948743</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="33">
-        <v>17</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="50">
-        <f>F29/$F$37</f>
-        <v>0.28289135104948743</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="45">
+      <c r="I29" s="24">
         <f>H29/$H$37</f>
         <v>0.36040027518237511</v>
       </c>
-      <c r="J29" s="52">
-        <f t="shared" si="0"/>
+      <c r="J29" s="30">
+        <f t="shared" si="2"/>
         <v>-17546070</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="58">
+        <v>18</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="5"/>
+        <v>0.48519807323418779</v>
+      </c>
+      <c r="H30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="63">
-        <v>18</v>
-      </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="57">
-        <f>F30/$F$37</f>
-        <v>0.48519807323418779</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="57">
+      <c r="I30" s="33">
         <f>H30/$H$37</f>
         <v>0.33183086650789018</v>
       </c>
-      <c r="J30" s="59">
-        <f t="shared" si="0"/>
+      <c r="J30" s="35">
+        <f t="shared" si="2"/>
         <v>24853647</v>
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="59">
+        <v>7</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" si="5"/>
+        <v>3.3039457258730455E-2</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="34">
-        <v>7</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="45">
-        <f>F31/$F$37</f>
-        <v>3.3039457258730455E-2</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="45">
+      <c r="I31" s="24">
         <f>H31/$H$37</f>
         <v>4.7881278913589856E-2</v>
       </c>
-      <c r="J31" s="52">
-        <f t="shared" si="0"/>
+      <c r="J31" s="30">
+        <f t="shared" si="2"/>
         <v>-3160338</v>
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="57">
+        <v>19</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="33">
-        <v>19</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="24">
+        <f t="shared" si="5"/>
+        <v>1.3984832049983657E-2</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="30">
+        <f t="shared" si="2"/>
+        <v>2551936</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="45">
-        <f>F32/$F$37</f>
-        <v>1.3984832049983657E-2</v>
-      </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="52">
-        <f t="shared" si="0"/>
-        <v>2551936</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="35" t="s">
+      <c r="D33" s="40">
+        <v>20</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="5"/>
+        <v>6.3993681020942453E-2</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="17">
-        <v>20</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="45">
-        <f>F33/$F$37</f>
-        <v>6.3993681020942453E-2</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="45">
+      <c r="I33" s="24">
         <f>H33/$H$37</f>
         <v>8.4659738281202698E-2</v>
       </c>
-      <c r="J33" s="52">
-        <f t="shared" si="0"/>
+      <c r="J33" s="30">
+        <f t="shared" si="2"/>
         <v>-4570342</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="54">
+        <v>9</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="5"/>
+        <v>1.229147411580778E-2</v>
+      </c>
+      <c r="H34" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="28">
-        <v>9</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="45">
-        <f>F34/$F$37</f>
-        <v>1.229147411580778E-2</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="45">
+      <c r="I34" s="24">
         <f>H34/$H$37</f>
         <v>3.0097561647640297E-2</v>
       </c>
-      <c r="J34" s="52">
-        <f t="shared" si="0"/>
+      <c r="J34" s="30">
+        <f t="shared" si="2"/>
         <v>-3533368</v>
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="40">
+        <v>12</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="5"/>
+        <v>9.49322043330557E-2</v>
+      </c>
+      <c r="H35" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="17">
-        <v>12</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="45">
-        <f>F35/$F$37</f>
-        <v>9.49322043330557E-2</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="45">
+      <c r="I35" s="24">
         <f>H35/$H$37</f>
         <v>0.12362607593938926</v>
       </c>
-      <c r="J35" s="52">
-        <f t="shared" si="0"/>
+      <c r="J35" s="30">
+        <f t="shared" si="2"/>
         <v>-6403107</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="40">
+        <v>21</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="5"/>
+        <v>1.3668926937804762E-2</v>
+      </c>
+      <c r="H36" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="17">
-        <v>21</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="45">
-        <f>F36/$F$37</f>
-        <v>1.3668926937804762E-2</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="45">
+      <c r="I36" s="24">
         <f>H36/$H$37</f>
         <v>2.1848098128427626E-2</v>
       </c>
-      <c r="J36" s="52">
-        <f t="shared" si="0"/>
+      <c r="J36" s="30">
+        <f t="shared" si="2"/>
         <v>-1698781</v>
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="51">
+      <c r="C37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="25">
         <f>SUM(G29:G36)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H37" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="49">
+      <c r="H37" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="28">
         <f>SUM(I29:I36)</f>
         <v>1.000343894600515</v>
       </c>
-      <c r="J37" s="52">
-        <f t="shared" si="0"/>
+      <c r="J37" s="30">
+        <f t="shared" si="2"/>
         <v>-9440423</v>
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="52"/>
+      <c r="C38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="30"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="64">
+      <c r="C39" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="42">
         <v>17</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="57">
+      <c r="E39" s="43"/>
+      <c r="F39" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="33">
         <f>F39/$F$42</f>
         <v>0.3422963937647267</v>
       </c>
-      <c r="H39" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="57">
+      <c r="H39" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="33">
         <f>H39/$H$42</f>
         <v>0.2986797387484309</v>
       </c>
-      <c r="J39" s="59">
-        <f t="shared" si="0"/>
+      <c r="J39" s="35">
+        <f t="shared" si="2"/>
         <v>963453</v>
       </c>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="19">
+      <c r="C40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="44">
         <v>7</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="45">
+      <c r="E40" s="41"/>
+      <c r="F40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="24">
         <f>F40/$F$42</f>
         <v>0.28701567213161444</v>
       </c>
-      <c r="H40" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="45">
+      <c r="H40" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="24">
         <f>H40/$H$42</f>
         <v>0.22280482354450526</v>
       </c>
-      <c r="J40" s="52">
-        <f t="shared" si="0"/>
+      <c r="J40" s="30">
+        <f t="shared" si="2"/>
         <v>4103904</v>
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="54">
+      <c r="C41" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="45">
         <v>12</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="57">
+      <c r="E41" s="43"/>
+      <c r="F41" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="33">
         <f>F41/$F$42</f>
         <v>0.37068793410365886</v>
       </c>
-      <c r="H41" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="57">
+      <c r="H41" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="33">
         <f>H41/$H$42</f>
         <v>0.47851543770706384</v>
       </c>
-      <c r="J41" s="59">
-        <f t="shared" si="0"/>
+      <c r="J41" s="35">
+        <f t="shared" si="2"/>
         <v>-17448806</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="46">
+      <c r="C42" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="25">
         <f>SUM(G39:G41)</f>
         <v>1</v>
       </c>
-      <c r="H42" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="I42" s="46">
+      <c r="H42" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="25">
         <f>SUM(I39:I41)</f>
         <v>1</v>
       </c>
-      <c r="J42" s="52">
-        <f t="shared" si="0"/>
+      <c r="J42" s="30">
+        <f t="shared" si="2"/>
         <v>-12381449</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="48" t="s">
+      <c r="I43" s="23"/>
+      <c r="J43" s="30">
+        <f t="shared" si="2"/>
+        <v>-21881872</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="44"/>
-      <c r="J43" s="52">
-        <f t="shared" si="0"/>
-        <v>-21881872</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="46"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="30"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="52"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="46"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="45">
-        <f>F45/$F$51</f>
+      <c r="G45" s="24">
+        <f t="shared" ref="G45:G50" si="6">F45/$F$51</f>
         <v>3.2700963705951156</v>
       </c>
-      <c r="H45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="45">
-        <f>H45/$H$51</f>
+      <c r="H45" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="24">
+        <f t="shared" ref="I45:I50" si="7">H45/$H$51</f>
         <v>3.9554817542041665</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="30">
         <f>F45-H45</f>
         <v>0</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12" t="s">
+      <c r="G46" s="24">
+        <f t="shared" si="6"/>
+        <v>1.3173416758302716</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="24">
+        <f t="shared" si="7"/>
+        <v>1.59344568852908</v>
+      </c>
+      <c r="J46" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="45">
-        <f>F46/$F$51</f>
-        <v>1.3173416758302716</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="45">
-        <f>H46/$H$51</f>
-        <v>1.59344568852908</v>
-      </c>
-      <c r="J46" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="38">
+      <c r="D47" s="50">
         <v>22</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="45">
+      <c r="E47" s="41"/>
+      <c r="F47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="24">
         <f>F47/$F$51</f>
         <v>-1.464761759842039</v>
       </c>
-      <c r="H47" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="45">
-        <f>H47/$H$51</f>
+      <c r="H47" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="24">
+        <f t="shared" si="7"/>
         <v>-3.0219781322039849</v>
       </c>
-      <c r="J47" s="52">
-        <f t="shared" si="0"/>
+      <c r="J47" s="30">
+        <f t="shared" si="2"/>
         <v>27794831</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="24">
+        <f t="shared" si="6"/>
+        <v>-2.1177279584573818</v>
+      </c>
+      <c r="H48" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12" t="s">
+      <c r="I48" s="24">
+        <f t="shared" si="7"/>
+        <v>-1.5264088296299041</v>
+      </c>
+      <c r="J48" s="30">
+        <f t="shared" si="2"/>
+        <v>-23014122</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="45">
-        <f>F48/$F$51</f>
-        <v>-2.1177279584573818</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="I48" s="45">
-        <f>H48/$H$51</f>
-        <v>-1.5264088296299041</v>
-      </c>
-      <c r="J48" s="52">
-        <f t="shared" si="0"/>
-        <v>-23014122</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="14" t="s">
+      <c r="D49" s="46"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="24">
+        <f t="shared" si="6"/>
+        <v>1.0049483281259664</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12" t="s">
+      <c r="I49" s="24">
+        <f t="shared" si="7"/>
+        <v>1.0005404808993574</v>
+      </c>
+      <c r="J49" s="30">
+        <f t="shared" si="2"/>
+        <v>4780709</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="45">
-        <f>F49/$F$51</f>
-        <v>1.0049483281259664</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" s="45">
-        <f>H49/$H$51</f>
-        <v>1.0005404808993574</v>
-      </c>
-      <c r="J49" s="52">
-        <f t="shared" si="0"/>
-        <v>4780709</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="24" t="s">
+      <c r="D50" s="46"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="24">
+        <f t="shared" si="6"/>
+        <v>-4.9483281259662601E-3</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12" t="s">
+      <c r="I50" s="24">
+        <f t="shared" si="7"/>
+        <v>-5.4048089935733782E-4</v>
+      </c>
+      <c r="J50" s="30">
+        <f t="shared" si="2"/>
+        <v>-121053</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="45">
-        <f>F50/$F$51</f>
-        <v>-4.9483281259662601E-3</v>
-      </c>
-      <c r="H50" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" s="45">
-        <f>H50/$H$51</f>
-        <v>-5.4048089935733782E-4</v>
-      </c>
-      <c r="J50" s="52">
-        <f t="shared" si="0"/>
-        <v>-121053</v>
-      </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="49">
+      <c r="D51" s="46"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="28">
         <f>SUM(G45:G50)</f>
         <v>2.0049483281259661</v>
       </c>
-      <c r="H51" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="49">
+      <c r="H51" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="28">
         <f>SUM(I45:I50)</f>
         <v>2.0005404808993577</v>
       </c>
-      <c r="J51" s="52">
-        <f t="shared" si="0"/>
+      <c r="J51" s="30">
+        <f t="shared" si="2"/>
         <v>4659656</v>
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53" s="44"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="14" t="s">
-        <v>116</v>
+      <c r="K55" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2300,7 +2378,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2313,7 +2391,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2326,7 +2404,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2340,7 +2418,7 @@
       <c r="L59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="47">
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -2365,8 +2443,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -2392,5 +2468,6 @@
     <mergeCell ref="D40:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>